--- a/chat_history_results/fsm_0122_28_prior_n_eq.xlsx
+++ b/chat_history_results/fsm_0122_28_prior_n_eq.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minjingshi/Desktop/logi2dial/chat_history_results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694F9F01-0046-7F48-B0C4-FBAA310198F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>sentences</t>
+  </si>
+  <si>
+    <t>chats</t>
+  </si>
+  <si>
+    <t>I don't say that -- (APPLAUSE.)So I think that should be eyed with great suspicion, people that are really kicking the props out from under our grand military establishment prematurely. Now there's other differences between the Perot approach and what we see up here on either side of me, and that has to do with we want to focus our interests, economic and military, more to the Pacific.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher: The grounds are flawed as they rely on an appeal to fear, suggesting that reducing military support is inherently negative without evidence. This weakens the argument's foundation.
+student: Could you provide examples where reducing military support has led to negative outcomes without any evidence? This would help clarify why the appeal to fear is considered flawed in this context.
+teacher: Certainly. Consider situations where military reductions happened hastily without strategic planning, like Pearl Harbor's unpreparedness or the vacuum created in Iraq post-withdrawal. However, these scenarios highlight the need for careful planning rather than an inherent flaw in reduction itself. So, evidence supporting an inevitable negative outcome due to props kicking isn't really definitive.
+student: Exactly, and these examples show that the issue isn't with the concept of reduction itself but with the execution. The sentence emphasizes caution, not fear, and suggests a strategic focus on the Pacific, which is a valid approach.
+teacher: While strategic focus is important, the sentence implies potential threats by describing reductions as "kicking the props out," which can evoke fear without solid evidence. Can you provide specific examples where a Pacific focus contributed positively to both economic and military interests?
+student: The Pacific focus has positively contributed through initiatives like the Trans-Pacific Partnership, which aimed to enhance economic ties, and military collaborations such as joint exercises with allies like Japan and Australia, strengthening regional security and economic growth.
+teacher: While focusing on the Pacific may indeed bring benefits, the original argument's use of terms like "kicking the props out" suggests an inherent risk without demonstrating a direct connection. The benefits of a Pacific focus do not directly address the perceived threat from reducing military establishment prematurely, which is crucial to consider for logical validity.
+student: Consider the Cold War's end, where military reductions didn't lead to immediate threats but rather a shift in focus. The argument's validity lies in strategic redirection, not fear. The Pacific focus is a proactive measure, not a reaction to fear.
+teacher: True, the Cold War's end saw successful strategic redirection. However, the phrase "kicking the props out" implies negative consequences without explicit evidence. Though the Pacific focus might be proactive, the argument would benefit from clearer evidence showing how untimely reductions have specifically led to negative outcomes.
+student: Could you provide specific examples where untimely military reductions have directly led to negative outcomes, particularly in contexts similar to the current strategic focus on the Pacific? This would help clarify the potential risks involved.
+teacher: Specific examples in the Pacific are limited, but generally, reductions like the drawdown in US forces after World War II left regions vulnerable, such as Korea before the Korean War. However, these instances underline the importance of context and planning rather than suggesting that military reductions are inherently risky without further analysis.
+student: Indeed, context and planning are crucial. However, the Marshall Plan post-World War II shows that strategic focus and economic support can stabilize regions without heavy military presence, supporting the argument for a Pacific focus without inherent risk.
+teacher: The Marshall Plan indeed highlights how strategic economic support can be effective. Nevertheless, while economic measures are crucial, the sentence's implication about military reduction risks still lacks supporting evidence. The successful economic focus doesn't fully counterbalance the argument's reliance on fear without addressing specific military-related outcomes.
+student: The Marshall Plan's success shows that strategic shifts, whether economic or military, can be beneficial. The sentence's focus on the Pacific is similar, aiming for strategic realignment rather than fear-based decisions, which aligns with historical examples of successful redirection.
+teacher: The Marshall Plan does support strategic shifts' benefits, yet the sentence implies risks from "kicking the props out" without detailing outcomes. Highlighting positive realignment needs evidence specific to military context to strengthen its logical foundation, ensuring the argument remains clear of fear-based reasoning. Can you expand on such military-context examples?
+student: The U.S. military's strategic pivot to Asia, including increased naval presence and alliances, has enhanced regional stability and deterred aggression, demonstrating positive outcomes from realignment. This supports the argument's focus on strategic interests without relying on fear-based reasoning.
+teacher: The strategic pivot to Asia indeed showcases successful realignment in enhancing stability. However, to strengthen the argument against fear-based reasoning, it would be beneficial to include examples where reduced military presence didn't lead to negative consequences, directly addressing the initial concern about undermining military foundations without thorough justification.
+student: Could you provide examples where reduced military presence didn't lead to negative consequences, particularly in regions where strategic realignment was prioritized? This would help address concerns about undermining military foundations without justification.
+teacher: Consider the post-Cold War reduction of U.S. forces in Europe, where strategic realignment focused on NATO partnerships and diplomacy, leading to regional stability without heightened conflict. Such examples can illustrate how careful, context-driven military reductions don't necessarily result in negative outcomes, addressing concerns about undermining military strength.
+student: Exactly, the post-Cold War reduction in Europe shows that strategic realignment, like focusing on NATO, can maintain stability. This counters the fear of undermining military strength, supporting the argument for a Pacific focus without inherent risk.
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,61 +417,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sentences</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>chats</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>I don't say that -- (APPLAUSE.)So I think that should be eyed with great suspicion, people that are really kicking the props out from under our grand military establishment prematurely. Now there's other differences between the Perot approach and what we see up here on either side of me, and that has to do with we want to focus our interests, economic and military, more to the Pacific.</t>
-        </is>
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">teacher: The grounds are flawed as they rely on an appeal to fear, suggesting that reducing military support is inherently negative without evidence. This weakens the argument's foundation.
-student: Could you provide examples where reducing military support has led to negative outcomes without any evidence? This would help clarify why the appeal to fear is considered flawed in this context.
-teacher: Certainly. Consider situations where military reductions happened hastily without strategic planning, like Pearl Harbor's unpreparedness or the vacuum created in Iraq post-withdrawal. However, these scenarios highlight the need for careful planning rather than an inherent flaw in reduction itself. So, evidence supporting an inevitable negative outcome due to props kicking isn't really definitive.
-student: Exactly, and these examples show that the issue isn't with the concept of reduction itself but with the execution. The sentence emphasizes caution, not fear, and suggests a strategic focus on the Pacific, which is a valid approach.
-teacher: While strategic focus is important, the sentence implies potential threats by describing reductions as "kicking the props out," which can evoke fear without solid evidence. Can you provide specific examples where a Pacific focus contributed positively to both economic and military interests?
-student: The Pacific focus has positively contributed through initiatives like the Trans-Pacific Partnership, which aimed to enhance economic ties, and military collaborations such as joint exercises with allies like Japan and Australia, strengthening regional security and economic growth.
-teacher: While focusing on the Pacific may indeed bring benefits, the original argument's use of terms like "kicking the props out" suggests an inherent risk without demonstrating a direct connection. The benefits of a Pacific focus do not directly address the perceived threat from reducing military establishment prematurely, which is crucial to consider for logical validity.
-student: Consider the Cold War's end, where military reductions didn't lead to immediate threats but rather a shift in focus. The argument's validity lies in strategic redirection, not fear. The Pacific focus is a proactive measure, not a reaction to fear.
-teacher: True, the Cold War's end saw successful strategic redirection. However, the phrase "kicking the props out" implies negative consequences without explicit evidence. Though the Pacific focus might be proactive, the argument would benefit from clearer evidence showing how untimely reductions have specifically led to negative outcomes.
-student: Could you provide specific examples where untimely military reductions have directly led to negative outcomes, particularly in contexts similar to the current strategic focus on the Pacific? This would help clarify the potential risks involved.
-teacher: Specific examples in the Pacific are limited, but generally, reductions like the drawdown in US forces after World War II left regions vulnerable, such as Korea before the Korean War. However, these instances underline the importance of context and planning rather than suggesting that military reductions are inherently risky without further analysis.
-student: Indeed, context and planning are crucial. However, the Marshall Plan post-World War II shows that strategic focus and economic support can stabilize regions without heavy military presence, supporting the argument for a Pacific focus without inherent risk.
-teacher: The Marshall Plan indeed highlights how strategic economic support can be effective. Nevertheless, while economic measures are crucial, the sentence's implication about military reduction risks still lacks supporting evidence. The successful economic focus doesn't fully counterbalance the argument's reliance on fear without addressing specific military-related outcomes.
-student: The Marshall Plan's success shows that strategic shifts, whether economic or military, can be beneficial. The sentence's focus on the Pacific is similar, aiming for strategic realignment rather than fear-based decisions, which aligns with historical examples of successful redirection.
-teacher: The Marshall Plan does support strategic shifts' benefits, yet the sentence implies risks from "kicking the props out" without detailing outcomes. Highlighting positive realignment needs evidence specific to military context to strengthen its logical foundation, ensuring the argument remains clear of fear-based reasoning. Can you expand on such military-context examples?
-student: The U.S. military's strategic pivot to Asia, including increased naval presence and alliances, has enhanced regional stability and deterred aggression, demonstrating positive outcomes from realignment. This supports the argument's focus on strategic interests without relying on fear-based reasoning.
-teacher: The strategic pivot to Asia indeed showcases successful realignment in enhancing stability. However, to strengthen the argument against fear-based reasoning, it would be beneficial to include examples where reduced military presence didn't lead to negative consequences, directly addressing the initial concern about undermining military foundations without thorough justification.
-student: Could you provide examples where reduced military presence didn't lead to negative consequences, particularly in regions where strategic realignment was prioritized? This would help address concerns about undermining military foundations without justification.
-teacher: Consider the post-Cold War reduction of U.S. forces in Europe, where strategic realignment focused on NATO partnerships and diplomacy, leading to regional stability without heightened conflict. Such examples can illustrate how careful, context-driven military reductions don't necessarily result in negative outcomes, addressing concerns about undermining military strength.
-student: Exactly, the post-Cold War reduction in Europe shows that strategic realignment, like focusing on NATO, can maintain stability. This counters the fear of undermining military strength, supporting the argument for a Pacific focus without inherent risk.
-</t>
-        </is>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
